--- a/Colocalisation_Workshop_Data/Demos/Demo 3/Demo3.xlsx
+++ b/Colocalisation_Workshop_Data/Demos/Demo 3/Demo3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thefranciscrickinstitute-my.sharepoint.com/personal/barryd_crick_ac_uk/Documents/Training/Colocalisation Workshop/Colocalisation_Workshop_Data/Demos/Demo 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{11C7F80E-C23F-44B3-81D6-345B8BBD6A74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{11C7F80E-C23F-44B3-81D6-345B8BBD6A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,307 +232,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1860</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2140</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1860</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1620</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2550</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="63">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="95">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="96">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>131</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>11</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>79</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,307 +544,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2050</c:v>
+                  <c:v>2410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1260</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2220</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="68">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="91">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="94">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>48</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>206</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>59</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>184</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>64</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,304 +1223,304 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="75">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="100">
                   <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,307 +1532,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="53">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="82">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="90">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="96">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="98">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3565,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,11 +3596,11 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(0,255) * 10</f>
-        <v>1860</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:B6" ca="1" si="0">RANDBETWEEN(0,255) * 10</f>
-        <v>2050</v>
+        <v>2410</v>
       </c>
       <c r="N2">
         <f ca="1">RANK(A2,A$2:A$102)</f>
@@ -3608,1041 +3608,1041 @@
       </c>
       <c r="O2">
         <f ca="1">RANK(B2,B$2:B$102)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A6" ca="1" si="1">RANDBETWEEN(0,255) * 10</f>
-        <v>2140</v>
+        <v>800</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1260</v>
+        <v>1150</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:O66" ca="1" si="2">RANK(A3,A$2:A$102)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1860</v>
+        <v>690</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2220</v>
+        <v>1440</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f ca="1">RANDBETWEEN(0,255) * 10</f>
-        <v>1620</v>
+        <v>2060</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>1140</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2550</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1350</v>
+        <v>1090</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:B26" ca="1" si="3">RANDBETWEEN(0,255)</f>
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">RANDBETWEEN(0,255)</f>
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ref="A9:B28" ca="1" si="4">RANDBETWEEN(0,255)</f>
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="4"/>
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="4"/>
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="4"/>
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="4"/>
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="4"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="3">
         <f ca="1">CORREL(A2:A102,B2:B102)</f>
-        <v>0.83367677175032961</v>
+        <v>0.72322102705829094</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="3">
         <f ca="1">CORREL(N2:N102,O2:O102)</f>
-        <v>5.4323754144718781E-2</v>
+        <v>-0.12434379106296874</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="4"/>
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="4"/>
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:B48" ca="1" si="5">RANDBETWEEN(0,255)</f>
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="5"/>
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="5"/>
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="5"/>
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="5"/>
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="5"/>
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="5"/>
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:B68" ca="1" si="6">RANDBETWEEN(0,255)</f>
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="6"/>
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="6"/>
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="6"/>
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="6"/>
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
-      </c>
-      <c r="O55">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="6"/>
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="6"/>
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="2"/>
@@ -4650,781 +4650,781 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="6"/>
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="6"/>
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="6"/>
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="6"/>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ca="1" si="6"/>
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:O102" ca="1" si="7">RANK(A67,A$2:A$102)</f>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="6"/>
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ref="A69:B88" ca="1" si="8">RANDBETWEEN(0,255)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="8"/>
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="8"/>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="8"/>
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="8"/>
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="8"/>
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="8"/>
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="8"/>
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="8"/>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="8"/>
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="8"/>
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="8"/>
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="8"/>
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="8"/>
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="8"/>
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="8"/>
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="8"/>
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="8"/>
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="8"/>
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="8"/>
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="8"/>
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="8"/>
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ref="A89:B102" ca="1" si="9">RANDBETWEEN(0,255)</f>
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="9"/>
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="9"/>
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="9"/>
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="9"/>
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="9"/>
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="9"/>
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="9"/>
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="9"/>
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="9"/>
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="9"/>
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="9"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="9"/>
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="9"/>
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="9"/>
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="9"/>
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="9"/>
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="9"/>
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
